--- a/backend/data/climatologias_HW.xlsx
+++ b/backend/data/climatologias_HW.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="hw_int" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="hw_dur" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t xml:space="preserve">Historical</t>
   </si>
@@ -80,8 +81,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -148,12 +150,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -348,8 +354,8 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="1" sqref="A1:H14 I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -714,4 +720,380 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>4.28</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/backend/data/climatologias_HW.xlsx
+++ b/backend/data/climatologias_HW.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="hw_int" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="hw_dur" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="hw_nwaves" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="hw_ndays" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="18">
   <si>
     <t xml:space="preserve">Historical</t>
   </si>
@@ -81,9 +83,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -150,16 +151,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -355,7 +352,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="1" sqref="A1:H14 I1"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -403,312 +400,312 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>16.73</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>16.89</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>16.97</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>17.06</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>16.88</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>17.57</v>
+      <c r="B3" s="0" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>16.02</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>16.94</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>17.06</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>17.16</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>17.24</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>17.03</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>17.8</v>
+      <c r="B4" s="0" t="n">
+        <v>15.74</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>16.07</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>15.83</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>16.28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>21.96</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>21.84</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>23.14</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>22.03</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>23.08</v>
+      <c r="B5" s="0" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>18.61</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>22.76</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>21.83</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>21.62</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>23.19</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>22.13</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>23.16</v>
+      <c r="B6" s="0" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>20.46</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>20.47</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>20.52</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>21.13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>22.84</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>21.98</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>21.77</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>23.14</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>23.45</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>23.41</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>23.49</v>
+      <c r="B7" s="0" t="n">
+        <v>24.21</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>24.03</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>24.95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>33.36</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>33.08</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>31.38</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>32.82</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>30.58</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>31.39</v>
+      <c r="B8" s="0" t="n">
+        <v>29.36</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>31.81</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>29.36</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>30.22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>28.94</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>33.77</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>33.52</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>32.11</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>33.11</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>30.56</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>31.81</v>
+      <c r="B9" s="0" t="n">
+        <v>31.44</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>34.15</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>34.45</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>34.05</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>34.71</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>33.08</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>34.53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="n">
-        <v>30.14</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>33.66</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>33.39</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>31.99</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>32.88</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>30.58</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>31.66</v>
+      <c r="B10" s="0" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>34.49</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>33.81</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>35.11</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>33.83</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>35.22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>26.01</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>25.79</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>24.22</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>24.61</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>24.55</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>25.42</v>
+      <c r="B11" s="0" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>31.42</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>30.84</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>30.98</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>31.3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>25.58</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>24.77</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>24.91</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>24.89</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>25.89</v>
+      <c r="B12" s="0" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>24.11</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>24.45</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>25.26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1" t="n">
-        <v>25.43</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>25.17</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>24.74</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>24.82</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>24.82</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>25.76</v>
+      <c r="B13" s="0" t="n">
+        <v>19.04</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>19.52</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>19.24</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>19.86</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>19.34</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>19.69</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1" t="n">
-        <v>16.21</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>16.77</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>17.05</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>17.13</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>16.93</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>17.65</v>
+      <c r="B14" s="0" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>17.1</v>
       </c>
     </row>
   </sheetData>
@@ -729,8 +726,8 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:H14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -779,312 +776,1052 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>4.19</v>
+      <c r="B3" s="0" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>9.24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>4.14</v>
+      <c r="B4" s="0" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>8.8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>3.81</v>
+      <c r="B5" s="0" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>7.11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>3.76</v>
+      <c r="B6" s="0" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>6.13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>3.76</v>
+      <c r="B7" s="0" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>4.72</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="C8" s="2" t="n">
+      <c r="B8" s="0" t="n">
         <v>3.43</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>4.07</v>
+      <c r="C8" s="0" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>3.79</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="0" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D9" s="0" t="n">
         <v>3.12</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>4</v>
+      <c r="E9" s="0" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>3.51</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="C10" s="2" t="n">
+      <c r="B10" s="0" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="H10" s="0" t="n">
         <v>3.49</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>4.14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>3.84</v>
+      <c r="B11" s="0" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>3.48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>3.85</v>
+      <c r="B12" s="0" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>3.82</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="H13" s="2" t="n">
+      <c r="B13" s="0" t="n">
         <v>3.95</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>4.85</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="G14" s="2" t="n">
+      <c r="B14" s="0" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>8.8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>3.34</v>
       </c>
-      <c r="H14" s="2" t="n">
-        <v>4.28</v>
+      <c r="D8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>8.74</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>8.84</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>13.73</v>
       </c>
     </row>
   </sheetData>
